--- a/baby_analysis/data/output.xlsx
+++ b/baby_analysis/data/output.xlsx
@@ -3,8 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="01" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="02" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="01_1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="01_2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="02_1" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="02_2" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="03_1" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="03_2" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="04_1" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="04_2" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="05_1" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="05_2" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="06_1" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="07_1" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="09_1" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="10_1" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="11_1" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="12_1" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="13">
   <si>
     <t>Trial Number</t>
   </si>
@@ -20,13 +34,22 @@
     <t>Trial Type</t>
   </si>
   <si>
-    <t>Looks On (s)</t>
+    <t>Looks On Total (s)</t>
   </si>
   <si>
-    <t>Looks Off (s)</t>
+    <t>Looks Off Total (s)</t>
   </si>
   <si>
-    <t>Looks Error (s)</t>
+    <t>Looks Error Total (s)</t>
+  </si>
+  <si>
+    <t>Looks On Before Lookaway (s)</t>
+  </si>
+  <si>
+    <t>Looks Off Before Lookaway (s)</t>
+  </si>
+  <si>
+    <t>Looks Error Before Lookaway (s)</t>
   </si>
   <si>
     <t>a</t>
@@ -37,49 +60,101 @@
   <si>
     <t>t</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>*at end of trial 4, dad walks into room and distracts baby, baby looks away to watch dad, and I marked this as an error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B3B2"/>
+        <bgColor rgb="FFB0B3B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4D4D4"/>
+        <bgColor rgb="FFD4D4D4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -102,7 +177,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01'!$D$1</c:f>
+              <c:f>'06_1'!$D$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -117,12 +192,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'01'!$C$2:$C$19</c:f>
+              <c:f>'06_1'!$C$2:$C$13</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01'!$D$2:$D$19</c:f>
+              <c:f>'06_1'!$D$2:$D$13</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -132,7 +207,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01'!$E$1</c:f>
+              <c:f>'06_1'!$E$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -147,22 +222,22 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'01'!$C$2:$C$19</c:f>
+              <c:f>'06_1'!$C$2:$C$13</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01'!$E$2:$E$19</c:f>
+              <c:f>'06_1'!$E$2:$E$13</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="530451421"/>
-        <c:axId val="1132808201"/>
+        <c:axId val="613804694"/>
+        <c:axId val="520243841"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="530451421"/>
+        <c:axId val="613804694"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -214,10 +289,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1132808201"/>
+        <c:crossAx val="520243841"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1132808201"/>
+        <c:axId val="520243841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -292,7 +367,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530451421"/>
+        <c:crossAx val="613804694"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -331,7 +406,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02'!$D$1</c:f>
+              <c:f>'11_1'!$D$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -346,12 +421,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'02'!$C$2:$C$19</c:f>
+              <c:f>'11_1'!$C$2:$C$19</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02'!$D$2:$D$19</c:f>
+              <c:f>'11_1'!$D$2:$D$19</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -361,7 +436,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02'!$E$1</c:f>
+              <c:f>'11_1'!$E$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -376,22 +451,22 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'02'!$C$2:$C$19</c:f>
+              <c:f>'11_1'!$C$2:$C$19</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02'!$E$2:$E$19</c:f>
+              <c:f>'11_1'!$E$2:$E$19</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="421437419"/>
-        <c:axId val="233632217"/>
+        <c:axId val="1111180245"/>
+        <c:axId val="1036830636"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="421437419"/>
+        <c:axId val="1111180245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,10 +518,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233632217"/>
+        <c:crossAx val="1036830636"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233632217"/>
+        <c:axId val="1036830636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +596,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421437419"/>
+        <c:crossAx val="1111180245"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -548,13 +623,21 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -577,14 +660,26 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -605,6 +700,42 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,24 +959,42 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>1.0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
         <v>2.159</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>2.239</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2.159</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2.239</v>
+      </c>
+      <c r="I2" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -853,19 +1002,28 @@
       <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>2.0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
         <v>21.198</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>2.238</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>21.198</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.238</v>
+      </c>
+      <c r="I3" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -873,19 +1031,28 @@
       <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>3.0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
         <v>10.957</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>8.116</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7.318</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.319</v>
+      </c>
+      <c r="I4" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -893,19 +1060,28 @@
       <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>4.0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
         <v>3.599</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>0.879</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3.599</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.879</v>
+      </c>
+      <c r="I5" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -913,19 +1089,28 @@
       <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>5.0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
         <v>12.316</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>9.936</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>12.316</v>
+      </c>
+      <c r="H6" s="4">
+        <v>9.936</v>
+      </c>
+      <c r="I6" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -933,19 +1118,28 @@
       <c r="A7" s="3">
         <v>6.0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>6.0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
         <v>3.598</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>18.54</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>11.661</v>
+      </c>
+      <c r="I7" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -953,19 +1147,28 @@
       <c r="A8" s="3">
         <v>7.0</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>7.0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
         <v>3.879</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>1.559</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3.879</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.559</v>
+      </c>
+      <c r="I8" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -973,39 +1176,57 @@
       <c r="A9" s="3">
         <v>8.0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>8.0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
         <v>28.956</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>15.194</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>1.999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>8.919</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3">
         <v>9.0</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>9.0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
         <v>16.316</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>7.317</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>15.836</v>
+      </c>
+      <c r="H10" s="4">
+        <v>7.317</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1013,19 +1234,28 @@
       <c r="A11" s="3">
         <v>10.0</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>10.0</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
         <v>4.518</v>
       </c>
-      <c r="E11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4.518</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1033,19 +1263,28 @@
       <c r="A12" s="3">
         <v>11.0</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>11.0</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
         <v>29.837</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>8.758</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>20.719</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.439</v>
+      </c>
+      <c r="I12" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1053,19 +1292,28 @@
       <c r="A13" s="3">
         <v>12.0</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>12.0</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
         <v>0.639</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>17.798</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>17.798</v>
+      </c>
+      <c r="I13" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1073,19 +1321,28 @@
       <c r="A14" s="3">
         <v>13.0</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>13.0</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
         <v>3.678</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>1.399</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3.678</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.399</v>
+      </c>
+      <c r="I14" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1093,19 +1350,28 @@
       <c r="A15" s="3">
         <v>14.0</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>14.0</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
         <v>16.837</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>23.398</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>10.399</v>
+      </c>
+      <c r="I15" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1113,19 +1379,28 @@
       <c r="A16" s="3">
         <v>15.0</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>15.0</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
         <v>6.477</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>10.918</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.878</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6.439</v>
+      </c>
+      <c r="I16" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1133,19 +1408,28 @@
       <c r="A17" s="3">
         <v>16.0</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>16.0</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
         <v>3.117</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>1.599</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3.117</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.599</v>
+      </c>
+      <c r="I17" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1153,19 +1437,28 @@
       <c r="A18" s="3">
         <v>17.0</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>17.0</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
         <v>28.432</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>23.592</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8.798</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3.518</v>
+      </c>
+      <c r="I18" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1173,19 +1466,3811 @@
       <c r="A19" s="3">
         <v>18.0</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>18.0</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7.557</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12.369</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2.838</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3.399</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3">
-        <v>7.557</v>
-      </c>
-      <c r="E19" s="3">
-        <v>12.369</v>
-      </c>
-      <c r="F19" s="3">
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.519</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.319</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.519</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.319</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>37.311</v>
+      </c>
+      <c r="E3" s="4">
+        <v>12.672</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>32.914</v>
+      </c>
+      <c r="H3" s="4">
+        <v>11.754</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.836</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8.237</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6.878</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6.118</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.959</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.959</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>21.232</v>
+      </c>
+      <c r="E6" s="4">
+        <v>14.113</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.839</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.759</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10.197</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.717</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8.158</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4.358</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.439</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.159</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.439</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4.159</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>14.354</v>
+      </c>
+      <c r="E9" s="4">
+        <v>23.474</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.998</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4.198</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>11.599</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>11.599</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.479</v>
+      </c>
+      <c r="E11" s="4">
+        <v>37.439</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>37.439</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>14.188</v>
+      </c>
+      <c r="E12" s="4">
+        <v>38.628</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.559</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.559</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8.959</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>8.959</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8.719</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8.719</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>15.995</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6.994</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>9.357</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5.555</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4.796</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8.396</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4.637</v>
+      </c>
+      <c r="H16" s="4">
+        <v>8.396</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6.199</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6.199</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.915</v>
+      </c>
+      <c r="E18" s="4">
+        <v>18.035</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3.557</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3.997</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7.478</v>
+      </c>
+      <c r="E19" s="4">
+        <v>11.518</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5.159</v>
+      </c>
+      <c r="H19" s="4">
+        <v>7.318</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.559</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.969</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3.559</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.969</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>40.04</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>40.04</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>17.035</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.957</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>16.716</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.957</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.599</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.599</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>31.997</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7.518</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>25.118</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4.478</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>13.274</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.356</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>12.955</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6.356</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.279</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.279</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>38.788</v>
+      </c>
+      <c r="E9" s="4">
+        <v>13.108</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>13.399</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2.079</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8.117</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5.957</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7.158</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.957</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9.478</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.599</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>9.478</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.599</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>22.237</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.238</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>22.237</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.238</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>11.675</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.916</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7.919</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7.078</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5.838</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="5"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.318</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.479</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.318</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.479</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>22.039</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.519</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>22.039</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.519</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>25.396</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.838</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>23.557</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.838</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.919</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.919</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>50.556</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5.117</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>50.556</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5.117</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>13.678</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.279</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11.519</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3.279</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.239</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.239</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>31.477</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7.118</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>23.599</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5.519</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>41.233</v>
+      </c>
+      <c r="E10" s="4">
+        <v>14.233</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>28.837</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4.597</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8.839</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8.839</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>32.718</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.158</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>11.439</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.039</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>22.155</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9.197</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>14.998</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2.799</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7.959</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>7.959</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>31.793</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20.474</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>12.879</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.839</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>11.197</v>
+      </c>
+      <c r="E16" s="4">
+        <v>13.117</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3.118</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6.238</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6.119</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.759</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6.119</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.759</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>18.433</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8.713</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>13.597</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4.557</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12.235</v>
+      </c>
+      <c r="E19" s="4">
+        <v>15.157</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5.637</v>
+      </c>
+      <c r="H19" s="4">
+        <v>5.278</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.559</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.678</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3.559</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.678</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>17.716</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.915</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>17.716</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4.915</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>24.827</v>
+      </c>
+      <c r="E4" s="4">
+        <v>20.107</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4.439</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.038</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.319</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.519</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.319</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.519</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>16.034</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5.794</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>16.034</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5.794</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>17.672</v>
+      </c>
+      <c r="E7" s="4">
+        <v>14.872</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8.596</v>
+      </c>
+      <c r="H7" s="4">
+        <v>9.075</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.799</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.799</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>21.185</v>
+      </c>
+      <c r="E9" s="4">
+        <v>28.824</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4.639</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2.159</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>15.035</v>
+      </c>
+      <c r="E10" s="4">
+        <v>11.714</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>15.035</v>
+      </c>
+      <c r="H10" s="4">
+        <v>11.714</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7.158</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.518</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7.158</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.518</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>21.353</v>
+      </c>
+      <c r="E12" s="4">
+        <v>14.954</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>11.838</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.878</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>21.67</v>
+      </c>
+      <c r="E13" s="4">
+        <v>16.91</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.959</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4.038</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.24</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.24</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>22.507</v>
+      </c>
+      <c r="E15" s="4">
+        <v>18.188</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>8.795</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5.836</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6.995</v>
+      </c>
+      <c r="E16" s="4">
+        <v>15.395</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.999</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5.158</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.998</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7.999</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.998</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>29.03</v>
+      </c>
+      <c r="E18" s="4">
+        <v>24.551</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>11.757</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3.597</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5.878</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8.599</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4.919</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.959</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.919</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.999</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3.919</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.999</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>47.074</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.035</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>26.277</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4.917</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>46.148</v>
+      </c>
+      <c r="E4" s="4">
+        <v>18.669</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.679</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.879</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6.279</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6.279</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>17.556</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.277</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>12.718</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.478</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>21.957</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9.677</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>13.919</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.839</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.079</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.719</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.079</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.719</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20.517</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.678</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20.517</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.678</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>30.634</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12.328</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3.839</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.679</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6.398</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.704</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.519</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3.704</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>37.435</v>
+      </c>
+      <c r="E12" s="4">
+        <v>17.276</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>7.319</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.399</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>14.239</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6.277</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>14.239</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6.277</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.479</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.479</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>36.318</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.879</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>14.159</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.879</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>26.716</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10.396</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>13.438</v>
+      </c>
+      <c r="H16" s="4">
+        <v>4.758</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.599</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7.599</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>34.797</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5.038</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>13.238</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3.798</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12.472</v>
+      </c>
+      <c r="E19" s="4">
+        <v>18.954</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3.638</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3.719</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8.037</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8.037</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>35.439</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>35.439</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>34.911</v>
+      </c>
+      <c r="E4" s="4">
+        <v>16.592</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>29.273</v>
+      </c>
+      <c r="H4" s="4">
+        <v>11.553</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.04</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.04</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>30.396</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.758</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>27.038</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4.839</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11.878</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.797</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11.878</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6.797</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.959</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.959</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>29.791</v>
+      </c>
+      <c r="E9" s="4">
+        <v>22.152</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>11.076</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5.916</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.879</v>
+      </c>
+      <c r="E10" s="4">
+        <v>13.317</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>8.158</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8.159</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.679</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8.159</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.679</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>18.718</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.919</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>18.718</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.919</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.558</v>
+      </c>
+      <c r="E13" s="4">
+        <v>14.397</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>11.398</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.439</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.439</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8.838</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8.118</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5.719</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4.159</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.759</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.879</v>
+      </c>
+      <c r="F16" s="4">
+        <v>14.478</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3.879</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2.559</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>10.519</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.479</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10.519</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4.479</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>32.514</v>
+      </c>
+      <c r="E18" s="4">
+        <v>23.474</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3.919</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3.719</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>25.918</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.68</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>25.918</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4.68</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.039</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.519</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.039</v>
+      </c>
+      <c r="H2" s="4">
+        <v>4.519</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>18.037</v>
+      </c>
+      <c r="E3" s="4">
+        <v>18.077</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.359</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.639</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>13.678</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9.957</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7.519</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.918</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.799</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.719</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.799</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3.719</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>28.556</v>
+      </c>
+      <c r="E6" s="4">
+        <v>23.596</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>12.319</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.559</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.357</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20.676</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10.519</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.719</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.919</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3.719</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.919</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>21.48</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>21.48</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12.996</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9.677</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>11.197</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4.038</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.879</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3.879</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>17.517</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.679</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>13.518</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.679</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>13.278</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6.879</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>13.159</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6.879</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.839</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.839</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>23.954</v>
+      </c>
+      <c r="E15" s="4">
+        <v>28.914</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>12.598</v>
+      </c>
+      <c r="H15" s="4">
+        <v>19.438</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>15.639</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>15.639</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.759</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5.159</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5.159</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8.037</v>
+      </c>
+      <c r="E18" s="4">
+        <v>20.517</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4.999</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3.639</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>20.319</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>20.319</v>
+      </c>
+      <c r="I19" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1221,24 +5306,42 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>1.0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.438</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.029</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.559</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>4.559</v>
+      </c>
+      <c r="I2" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1246,19 +5349,28 @@
       <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>2.0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3">
-        <v>21.598</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.518</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>21.038</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.799</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>21.038</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.799</v>
+      </c>
+      <c r="I3" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1266,19 +5378,28 @@
       <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>3.0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>29.035</v>
-      </c>
-      <c r="E4" s="3">
-        <v>18.194</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9.158</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9.998</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7.439</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.319</v>
+      </c>
+      <c r="I4" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1286,19 +5407,28 @@
       <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>4.0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.839</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.799</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4.999</v>
+      </c>
+      <c r="I5" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1306,19 +5436,28 @@
       <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>5.0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>48.112</v>
-      </c>
-      <c r="E6" s="3">
-        <v>6.194</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>12.118</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9.317</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>12.118</v>
+      </c>
+      <c r="H6" s="4">
+        <v>9.317</v>
+      </c>
+      <c r="I6" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1326,19 +5465,28 @@
       <c r="A7" s="3">
         <v>6.0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>6.0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>25.876</v>
-      </c>
-      <c r="E7" s="3">
-        <v>7.036</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.279</v>
+      </c>
+      <c r="E7" s="4">
+        <v>19.118</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>12.079</v>
+      </c>
+      <c r="I7" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1346,19 +5494,28 @@
       <c r="A8" s="3">
         <v>7.0</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>7.0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3.799</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.799</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.439</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.439</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1366,19 +5523,28 @@
       <c r="A9" s="3">
         <v>8.0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>8.0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>35.478</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.396</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>31.754</v>
+      </c>
+      <c r="E9" s="4">
+        <v>21.673</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>9.319</v>
+      </c>
+      <c r="I9" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1386,19 +5552,28 @@
       <c r="A10" s="3">
         <v>9.0</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>9.0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>8.995</v>
-      </c>
-      <c r="E10" s="3">
-        <v>11.996</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12.199</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.279</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>12.199</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4.279</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1406,19 +5581,28 @@
       <c r="A11" s="3">
         <v>10.0</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>10.0</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10.998</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1.718</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4.999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1426,19 +5610,28 @@
       <c r="A12" s="3">
         <v>11.0</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>11.0</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3">
-        <v>28.434</v>
-      </c>
-      <c r="E12" s="3">
-        <v>11.155</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>29.717</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8.277</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>20.319</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.159</v>
+      </c>
+      <c r="I12" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1446,19 +5639,28 @@
       <c r="A13" s="3">
         <v>12.0</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>12.0</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3.278</v>
-      </c>
-      <c r="E13" s="3">
-        <v>9.118</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>18.799</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>18.799</v>
+      </c>
+      <c r="I13" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1466,19 +5668,28 @@
       <c r="A14" s="3">
         <v>13.0</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>13.0</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3.559</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1.159</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.079</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.079</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1486,19 +5697,28 @@
       <c r="A15" s="3">
         <v>14.0</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>14.0</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3">
-        <v>24.472</v>
-      </c>
-      <c r="E15" s="3">
-        <v>26.553</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14.477</v>
+      </c>
+      <c r="E15" s="4">
+        <v>25.317</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>10.159</v>
+      </c>
+      <c r="I15" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1506,19 +5726,28 @@
       <c r="A16" s="3">
         <v>15.0</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>15.0</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3">
-        <v>7.932</v>
-      </c>
-      <c r="E16" s="3">
-        <v>12.558</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.559</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9.959</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.559</v>
+      </c>
+      <c r="H16" s="4">
+        <v>9.959</v>
+      </c>
+      <c r="I16" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1526,19 +5755,28 @@
       <c r="A17" s="3">
         <v>16.0</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>16.0</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4.624</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.958</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>11.199</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>11.199</v>
+      </c>
+      <c r="I17" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1546,19 +5784,28 @@
       <c r="A18" s="3">
         <v>17.0</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>17.0</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>13.995</v>
-      </c>
-      <c r="E18" s="3">
-        <v>10.355</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>28.194</v>
+      </c>
+      <c r="E18" s="4">
+        <v>22.354</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8.799</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3.119</v>
+      </c>
+      <c r="I18" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1566,20 +5813,3977 @@
       <c r="A19" s="3">
         <v>18.0</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>18.0</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7.358</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12.997</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2.919</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4.678</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3">
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.438</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.029</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3.438</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.029</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>21.598</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.518</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>21.598</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.518</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>29.035</v>
+      </c>
+      <c r="E4" s="4">
+        <v>18.194</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>11.719</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.839</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.799</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3.839</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.799</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>48.112</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.194</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>48.112</v>
+      </c>
+      <c r="H6" s="4">
+        <v>6.194</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25.876</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.036</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>13.919</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.279</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.799</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.799</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3.799</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.799</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>35.478</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.396</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>35.478</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2.396</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8.995</v>
+      </c>
+      <c r="E10" s="4">
+        <v>11.996</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7.637</v>
+      </c>
+      <c r="H10" s="4">
+        <v>7.358</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10.998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.718</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10.998</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.718</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>28.434</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11.155</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6.158</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3.558</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.278</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9.118</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.239</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4.319</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.559</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.159</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3.559</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.159</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>24.472</v>
+      </c>
+      <c r="E15" s="4">
+        <v>26.553</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7.039</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.359</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7.932</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12.558</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.479</v>
+      </c>
+      <c r="H16" s="4">
+        <v>12.039</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.624</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.958</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4.624</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.958</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>13.995</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10.355</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>9.797</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5.797</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
         <v>12.114</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>9.716</v>
       </c>
-      <c r="F19" s="3">
-        <v>0.0</v>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3.238</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.199</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6.239</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6.239</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>20.358</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.558</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>20.358</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.558</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>41.794</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5.635</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>21.036</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4.876</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7.399</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7.399</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>48.716</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.117</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>48.716</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.117</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>26.277</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.397</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>13.599</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.159</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.959</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.959</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>35.438</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.039</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>35.438</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.039</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>14.077</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6.157</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7.598</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3.598</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>14.959</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>14.959</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>28.875</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8.756</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4.678</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3.438</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.838</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9.118</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.639</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4.199</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7.359</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>7.359</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>22.475</v>
+      </c>
+      <c r="E15" s="4">
+        <v>25.876</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4.239</v>
+      </c>
+      <c r="H15" s="4">
+        <v>15.319</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.439</v>
+      </c>
+      <c r="E16" s="4">
+        <v>11.919</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.439</v>
+      </c>
+      <c r="H16" s="4">
+        <v>11.919</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>12.079</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>12.079</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>11.355</v>
+      </c>
+      <c r="E18" s="4">
+        <v>11.915</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>9.317</v>
+      </c>
+      <c r="H18" s="4">
+        <v>7.477</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>15.477</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6.638</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>15.477</v>
+      </c>
+      <c r="H19" s="4">
+        <v>6.638</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.679</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.679</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>38.718</v>
+      </c>
+      <c r="E3" s="4">
+        <v>14.079</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>20.999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>8.599</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9.558</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10.396</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7.319</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4.317</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.079</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.079</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>14.198</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10.279</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4.638</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10.279</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7.558</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.759</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7.558</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5.759</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.959</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.879</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.959</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.879</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>22.159</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.879</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>22.159</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.879</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>19.518</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.079</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>19.518</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3.079</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.479</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.639</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3.479</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.639</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>40.753</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12.954</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>14.118</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3.958</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.879</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6.519</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5.879</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6.519</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8.24</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.399</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8.24</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2.399</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>38.078</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.999</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>38.078</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.999</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.919</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12.678</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>12.678</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.84</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4.84</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>22.956</v>
+      </c>
+      <c r="E18" s="4">
+        <v>14.318</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>12.398</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4.559</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>13.319</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.467</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>13.319</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4.467</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.999</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>39.997</v>
+      </c>
+      <c r="E3" s="4">
+        <v>12.117</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>20.318</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7.078</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10.998</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.877</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10.998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6.877</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.919</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.519</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.919</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4.519</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11.318</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9.999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.799</v>
+      </c>
+      <c r="H6" s="4">
+        <v>9.999</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9.518</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.038</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>9.518</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6.038</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.759</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.039</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.759</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.039</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>22.439</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>22.439</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>20.319</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.799</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>20.319</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.799</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.879</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.159</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.879</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.159</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>30.878</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7.718</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>14.799</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3.719</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>17.518</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10.796</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>8.479</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3.637</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7.799</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.599</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>7.799</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2.599</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>37.478</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.879</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>37.478</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.879</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9.559</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>9.559</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.839</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.159</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4.839</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4.159</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>23.037</v>
+      </c>
+      <c r="E18" s="4">
+        <v>14.318</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>12.559</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4.559</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>13.479</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.84</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>13.479</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4.84</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.999</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>31.76</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>31.76</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>55.155</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.597</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>16.638</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.479</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.639</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.639</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>53.84</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>53.84</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>31.237</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.439</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>31.237</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.439</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.719</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.719</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>21.84</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>21.84</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>22.072</v>
+      </c>
+      <c r="E10" s="4">
+        <v>18.033</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7.878</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.679</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.519</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.759</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5.519</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.759</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>15.918</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7.198</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10.399</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.719</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>27.354</v>
+      </c>
+      <c r="E13" s="4">
+        <v>11.435</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>25.156</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6.836</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9.359</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>9.359</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>38.954</v>
+      </c>
+      <c r="E15" s="4">
+        <v>13.074</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>30.636</v>
+      </c>
+      <c r="H15" s="4">
+        <v>8.556</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>13.114</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8.516</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>11.036</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5.957</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6.599</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6.599</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>36.359</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.279</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>36.359</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.279</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12.476</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5.917</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11.676</v>
+      </c>
+      <c r="H19" s="4">
+        <v>5.917</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6.359</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6.359</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>35.98</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>35.98</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>49.615</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.037</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10.098</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.319</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.519</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.519</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>51.98</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>51.98</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>32.777</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.519</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>32.777</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.519</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6.399</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6.399</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>19.96</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>19.96</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>31.074</v>
+      </c>
+      <c r="E10" s="4">
+        <v>11.435</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>24.396</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4.277</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6.998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6.998</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>13.758</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6.878</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>7.279</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.639</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>27.834</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9.355</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>27.834</v>
+      </c>
+      <c r="H13" s="4">
+        <v>9.355</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>12.559</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.679</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>12.559</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.679</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>39.195</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10.195</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>28.996</v>
+      </c>
+      <c r="H15" s="4">
+        <v>7.076</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>16.236</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5.718</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>13.358</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3.359</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>10.039</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10.039</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>32.719</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.119</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>32.719</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.119</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>13.957</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.398</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>12.677</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4.398</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.478</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.799</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.478</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.799</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>36.911</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10.512</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.119</v>
+      </c>
+      <c r="G3" s="4">
+        <v>32.954</v>
+      </c>
+      <c r="H3" s="4">
+        <v>9.154</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.196</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8.677</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6.678</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6.438</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>21.872</v>
+      </c>
+      <c r="E6" s="4">
+        <v>13.995</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.919</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9.637</v>
+      </c>
+      <c r="E7" s="4">
+        <v>11.917</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7.398</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4.398</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.88</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.88</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>12.954</v>
+      </c>
+      <c r="E9" s="4">
+        <v>24.634</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.358</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4.757</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.077</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12.354</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.316</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>18.392</v>
+      </c>
+      <c r="E11" s="4">
+        <v>19.073</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7.995</v>
+      </c>
+      <c r="H11" s="4">
+        <v>16.315</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>12.868</v>
+      </c>
+      <c r="E12" s="4">
+        <v>39.55</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.279</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.919</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.359</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8.918</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>8.918</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7.439</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>7.439</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>11.155</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7.634</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="G15" s="4">
+        <v>8.916</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6.196</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5.278</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7.996</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5.278</v>
+      </c>
+      <c r="H16" s="4">
+        <v>7.996</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.715</v>
+      </c>
+      <c r="E18" s="4">
+        <v>17.594</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2.318</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3.996</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2.676</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12.316</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.718</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2.037</v>
+      </c>
+      <c r="H19" s="4">
+        <v>6.277</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.959</v>
       </c>
     </row>
   </sheetData>

--- a/baby_analysis/data/output.xlsx
+++ b/baby_analysis/data/output.xlsx
@@ -59,6 +59,10 @@
     <sheet state="visible" name="28_2" sheetId="54" r:id="rId57"/>
     <sheet state="visible" name="30_1" sheetId="55" r:id="rId58"/>
     <sheet state="visible" name="30_2" sheetId="56" r:id="rId59"/>
+    <sheet state="visible" name="31_1" sheetId="57" r:id="rId60"/>
+    <sheet state="visible" name="33_1" sheetId="58" r:id="rId61"/>
+    <sheet state="visible" name="34_1" sheetId="59" r:id="rId62"/>
+    <sheet state="visible" name="35_1" sheetId="60" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -66,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="22">
   <si>
     <t>Trial Number</t>
   </si>
@@ -313,11 +317,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="51308188"/>
-        <c:axId val="1512673847"/>
+        <c:axId val="1193938744"/>
+        <c:axId val="1969205473"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51308188"/>
+        <c:axId val="1193938744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -369,10 +373,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1512673847"/>
+        <c:crossAx val="1969205473"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1512673847"/>
+        <c:axId val="1969205473"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +451,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51308188"/>
+        <c:crossAx val="1193938744"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -542,11 +546,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="444689178"/>
-        <c:axId val="1028613927"/>
+        <c:axId val="279745605"/>
+        <c:axId val="2105350564"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444689178"/>
+        <c:axId val="279745605"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,10 +602,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1028613927"/>
+        <c:crossAx val="2105350564"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1028613927"/>
+        <c:axId val="2105350564"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,7 +680,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444689178"/>
+        <c:crossAx val="279745605"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -962,7 +966,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing57.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing58.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing59.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing60.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -43745,6 +43765,3069 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.959</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4.743</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1.959</v>
+      </c>
+      <c r="H2" s="8">
+        <v>4.743</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1.959</v>
+      </c>
+      <c r="K2" s="8">
+        <v>4.743</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1.959</v>
+      </c>
+      <c r="N2" s="8">
+        <v>4.743</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>1.959</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>4.743</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43.997</v>
+      </c>
+      <c r="E3" s="8">
+        <v>9.277</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>35.839</v>
+      </c>
+      <c r="H3" s="8">
+        <v>5.159</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>35.839</v>
+      </c>
+      <c r="K3" s="8">
+        <v>5.159</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>35.839</v>
+      </c>
+      <c r="N3" s="8">
+        <v>5.159</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>35.839</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>5.159</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>11.279</v>
+      </c>
+      <c r="E4" s="8">
+        <v>11.718</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6.439</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>6.439</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>6.439</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>6.439</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4.799</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.479</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4.799</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.479</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>4.799</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.479</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>4.799</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.479</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>4.799</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0.479</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <v>40.719</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>40.719</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>40.719</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>40.719</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>40.719</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
+        <v>33.635</v>
+      </c>
+      <c r="E7" s="8">
+        <v>12.315</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>20.839</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2.639</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>20.839</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2.639</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>20.839</v>
+      </c>
+      <c r="N7" s="8">
+        <v>2.639</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>33.635</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>12.315</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2.959</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2.959</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2.959</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>2.959</v>
+      </c>
+      <c r="N8" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>2.959</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
+        <v>36.758</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.759</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>31.319</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2.759</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>31.319</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2.759</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>31.319</v>
+      </c>
+      <c r="N9" s="8">
+        <v>2.759</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>31.319</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>2.759</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8">
+        <v>14.839</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2.799</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>14.839</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2.799</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>14.839</v>
+      </c>
+      <c r="K10" s="8">
+        <v>2.799</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>14.839</v>
+      </c>
+      <c r="N10" s="8">
+        <v>2.799</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>14.839</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>2.799</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4.398</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.039</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.399</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2.039</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1.399</v>
+      </c>
+      <c r="K11" s="8">
+        <v>2.039</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1.399</v>
+      </c>
+      <c r="N11" s="8">
+        <v>2.039</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1.399</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>2.039</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8">
+        <v>20.158</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>15.439</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>15.439</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>15.439</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>15.439</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3.999</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10.398</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3.999</v>
+      </c>
+      <c r="H13" s="8">
+        <v>10.398</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>3.999</v>
+      </c>
+      <c r="K13" s="8">
+        <v>10.398</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>3.999</v>
+      </c>
+      <c r="N13" s="8">
+        <v>10.398</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>3.999</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>10.398</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8">
+        <v>9.079</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>9.079</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>9.079</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>9.079</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>9.079</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8">
+        <v>15.837</v>
+      </c>
+      <c r="E15" s="8">
+        <v>7.118</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>6.119</v>
+      </c>
+      <c r="H15" s="8">
+        <v>4.519</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>6.119</v>
+      </c>
+      <c r="K15" s="8">
+        <v>4.519</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>6.119</v>
+      </c>
+      <c r="N15" s="8">
+        <v>4.519</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>6.119</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>4.519</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4.918</v>
+      </c>
+      <c r="E16" s="8">
+        <v>7.879</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>3.639</v>
+      </c>
+      <c r="H16" s="8">
+        <v>7.879</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>3.639</v>
+      </c>
+      <c r="K16" s="8">
+        <v>7.879</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>3.639</v>
+      </c>
+      <c r="N16" s="8">
+        <v>7.879</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>3.639</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>7.879</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8">
+        <v>4.159</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1.146</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>4.159</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1.146</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>4.159</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1.146</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>4.159</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1.146</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>4.159</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1.146</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <v>21.634</v>
+      </c>
+      <c r="E3" s="8">
+        <v>17.475</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>8.478</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8.558</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>8.478</v>
+      </c>
+      <c r="K3" s="8">
+        <v>8.558</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>8.478</v>
+      </c>
+      <c r="N3" s="8">
+        <v>8.558</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>8.478</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>8.558</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>9.678</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3.719</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>8.639</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3.719</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>8.639</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3.719</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>8.639</v>
+      </c>
+      <c r="N4" s="8">
+        <v>3.719</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>8.639</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>3.719</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4.959</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4.959</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>4.959</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>4.959</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>4.959</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <v>26.753</v>
+      </c>
+      <c r="E6" s="8">
+        <v>27.153</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>10.878</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3.038</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>10.878</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3.038</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>17.397</v>
+      </c>
+      <c r="N6" s="8">
+        <v>7.997</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>17.397</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>7.997</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.758</v>
+      </c>
+      <c r="E7" s="8">
+        <v>8.638</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.519</v>
+      </c>
+      <c r="H7" s="8">
+        <v>8.638</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.519</v>
+      </c>
+      <c r="K7" s="8">
+        <v>8.638</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.519</v>
+      </c>
+      <c r="N7" s="8">
+        <v>8.638</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.519</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>8.638</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5.679</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5.679</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>5.679</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>5.679</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>5.679</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
+        <v>13.235</v>
+      </c>
+      <c r="E9" s="8">
+        <v>9.076</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>7.439</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3.119</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>7.439</v>
+      </c>
+      <c r="K9" s="8">
+        <v>3.119</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>7.439</v>
+      </c>
+      <c r="N9" s="8">
+        <v>3.119</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>7.439</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>3.119</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8">
+        <v>7.156</v>
+      </c>
+      <c r="E10" s="8">
+        <v>11.676</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3.279</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2.519</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3.279</v>
+      </c>
+      <c r="K10" s="8">
+        <v>2.519</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>3.279</v>
+      </c>
+      <c r="N10" s="8">
+        <v>2.519</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>5.037</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>7.997</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8">
+        <v>9.919</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.239</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>9.919</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.239</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>9.919</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.239</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>9.919</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.239</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>9.919</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.239</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8">
+        <v>13.635</v>
+      </c>
+      <c r="E12" s="8">
+        <v>8.275</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4.159</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2.319</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>4.159</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2.319</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>4.159</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2.319</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>4.159</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>2.319</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3.037</v>
+      </c>
+      <c r="E13" s="8">
+        <v>11.316</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.279</v>
+      </c>
+      <c r="H13" s="8">
+        <v>4.998</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1.279</v>
+      </c>
+      <c r="K13" s="8">
+        <v>4.998</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1.279</v>
+      </c>
+      <c r="N13" s="8">
+        <v>4.998</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1.279</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>4.998</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4.759</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.599</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.759</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1.599</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>4.759</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1.599</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>4.759</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1.599</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>4.759</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>1.599</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8">
+        <v>17.553</v>
+      </c>
+      <c r="E15" s="8">
+        <v>33.513</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>3.919</v>
+      </c>
+      <c r="H15" s="8">
+        <v>3.119</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>3.919</v>
+      </c>
+      <c r="K15" s="8">
+        <v>3.119</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>3.919</v>
+      </c>
+      <c r="N15" s="8">
+        <v>3.119</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>3.919</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>3.119</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8">
+        <v>13.395</v>
+      </c>
+      <c r="E16" s="8">
+        <v>12.395</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5.838</v>
+      </c>
+      <c r="H16" s="8">
+        <v>5.957</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>5.838</v>
+      </c>
+      <c r="K16" s="8">
+        <v>5.957</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>12.316</v>
+      </c>
+      <c r="N16" s="8">
+        <v>12.395</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>12.316</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>12.395</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8">
+        <v>8.239</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>8.239</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>8.239</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>8.239</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>8.239</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8">
+        <v>21.514</v>
+      </c>
+      <c r="E18" s="8">
+        <v>18.554</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>4.519</v>
+      </c>
+      <c r="H18" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>4.519</v>
+      </c>
+      <c r="K18" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>4.519</v>
+      </c>
+      <c r="N18" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>4.519</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.958</v>
+      </c>
+      <c r="E19" s="8">
+        <v>7.997</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="H19" s="8">
+        <v>6.838</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="K19" s="8">
+        <v>6.838</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="N19" s="8">
+        <v>6.838</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>6.838</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8">
+        <v>6.323</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>6.323</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>6.323</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>6.323</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>6.323</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <v>38.039</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>38.039</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>38.039</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>38.039</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>38.039</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>31.757</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2.439</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.399</v>
+      </c>
+      <c r="G4" s="8">
+        <v>30.998</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2.439</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1.399</v>
+      </c>
+      <c r="J4" s="8">
+        <v>30.998</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2.439</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1.399</v>
+      </c>
+      <c r="M4" s="8">
+        <v>30.998</v>
+      </c>
+      <c r="N4" s="8">
+        <v>2.439</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1.399</v>
+      </c>
+      <c r="P4" s="8">
+        <v>30.998</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>2.439</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1.399</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4.959</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4.959</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>4.959</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>4.959</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>4.959</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <v>36.558</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1.639</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.119</v>
+      </c>
+      <c r="G6" s="8">
+        <v>36.558</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.639</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.119</v>
+      </c>
+      <c r="J6" s="8">
+        <v>36.558</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.639</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1.119</v>
+      </c>
+      <c r="M6" s="8">
+        <v>36.558</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1.639</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1.119</v>
+      </c>
+      <c r="P6" s="8">
+        <v>36.558</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1.639</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1.119</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
+        <v>12.278</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="F7" s="8">
+        <v>8.319</v>
+      </c>
+      <c r="G7" s="8">
+        <v>12.278</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="I7" s="8">
+        <v>8.319</v>
+      </c>
+      <c r="J7" s="8">
+        <v>12.278</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="L7" s="8">
+        <v>8.319</v>
+      </c>
+      <c r="M7" s="8">
+        <v>12.278</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="O7" s="8">
+        <v>8.319</v>
+      </c>
+      <c r="P7" s="8">
+        <v>12.278</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="R7" s="8">
+        <v>8.319</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>15.878</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3.158</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>12.319</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>12.319</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>12.319</v>
+      </c>
+      <c r="N8" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>12.319</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
+        <v>23.394</v>
+      </c>
+      <c r="E9" s="8">
+        <v>31.473</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>7.519</v>
+      </c>
+      <c r="H9" s="8">
+        <v>11.518</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>7.519</v>
+      </c>
+      <c r="K9" s="8">
+        <v>11.518</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>7.519</v>
+      </c>
+      <c r="N9" s="8">
+        <v>11.518</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>7.519</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>11.518</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8">
+        <v>9.919</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.238</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>9.919</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4.238</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>9.919</v>
+      </c>
+      <c r="K10" s="8">
+        <v>4.238</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>9.919</v>
+      </c>
+      <c r="N10" s="8">
+        <v>4.238</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>9.919</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>4.238</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8">
+        <v>37.396</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4.516</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>32.517</v>
+      </c>
+      <c r="H11" s="8">
+        <v>4.516</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>32.517</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4.516</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>32.517</v>
+      </c>
+      <c r="N11" s="8">
+        <v>4.516</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>32.517</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>4.516</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8">
+        <v>17.998</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.119</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="H12" s="8">
+        <v>4.119</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="K12" s="8">
+        <v>4.119</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="N12" s="8">
+        <v>4.119</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>4.119</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8">
+        <v>18.195</v>
+      </c>
+      <c r="E13" s="8">
+        <v>8.276</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2.479</v>
+      </c>
+      <c r="G13" s="8">
+        <v>8.879</v>
+      </c>
+      <c r="H13" s="8">
+        <v>3.319</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>8.879</v>
+      </c>
+      <c r="K13" s="8">
+        <v>3.319</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>8.879</v>
+      </c>
+      <c r="N13" s="8">
+        <v>3.319</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>8.879</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>3.319</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5.479</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>5.479</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>5.479</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>5.479</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>5.479</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8">
+        <v>10.797</v>
+      </c>
+      <c r="E15" s="8">
+        <v>14.397</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>6.639</v>
+      </c>
+      <c r="H15" s="8">
+        <v>4.359</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>6.639</v>
+      </c>
+      <c r="K15" s="8">
+        <v>4.359</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>6.639</v>
+      </c>
+      <c r="N15" s="8">
+        <v>4.359</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>6.639</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>4.359</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8">
+        <v>17.638</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3.638</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>7.039</v>
+      </c>
+      <c r="H16" s="8">
+        <v>3.638</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>7.039</v>
+      </c>
+      <c r="K16" s="8">
+        <v>3.638</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>7.039</v>
+      </c>
+      <c r="N16" s="8">
+        <v>3.638</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>7.039</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>3.638</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8">
+        <v>8.799</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>8.799</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>8.799</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>8.799</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>8.799</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8">
+        <v>28.114</v>
+      </c>
+      <c r="E18" s="8">
+        <v>27.034</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>12.199</v>
+      </c>
+      <c r="H18" s="8">
+        <v>12.199</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>12.199</v>
+      </c>
+      <c r="K18" s="8">
+        <v>12.199</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>12.199</v>
+      </c>
+      <c r="N18" s="8">
+        <v>12.199</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>12.199</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>12.199</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8">
+        <v>9.079</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4.358</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>9.079</v>
+      </c>
+      <c r="H19" s="8">
+        <v>4.358</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>9.079</v>
+      </c>
+      <c r="K19" s="8">
+        <v>4.358</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>9.079</v>
+      </c>
+      <c r="N19" s="8">
+        <v>4.358</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>9.079</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>4.358</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -44814,6 +47897,1083 @@
         <v>4.84</v>
       </c>
       <c r="R19" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>4.999</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <v>13.915</v>
+      </c>
+      <c r="E3" s="8">
+        <v>8.996</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>5.839</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>5.839</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>5.839</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2.599</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>12.396</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>8.996</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>27.278</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5.878</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6.479</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.679</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>27.278</v>
+      </c>
+      <c r="K4" s="8">
+        <v>5.878</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>27.278</v>
+      </c>
+      <c r="N4" s="8">
+        <v>5.878</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>27.278</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>5.878</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4.239</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.519</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4.239</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2.519</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>4.239</v>
+      </c>
+      <c r="K5" s="8">
+        <v>2.519</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>4.239</v>
+      </c>
+      <c r="N5" s="8">
+        <v>2.519</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>4.239</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>2.519</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <v>29.873</v>
+      </c>
+      <c r="E6" s="8">
+        <v>23.433</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5.199</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3.039</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>5.199</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3.039</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>5.199</v>
+      </c>
+      <c r="N6" s="8">
+        <v>3.039</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>5.199</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>3.039</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
+        <v>13.196</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4.996</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5.199</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5.958</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>8.798</v>
+      </c>
+      <c r="K7" s="8">
+        <v>8.517</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>8.798</v>
+      </c>
+      <c r="N7" s="8">
+        <v>8.517</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>8.798</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>8.517</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5.839</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5.839</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>5.839</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>5.839</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>5.839</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
+        <v>27.835</v>
+      </c>
+      <c r="E9" s="8">
+        <v>9.075</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>10.598</v>
+      </c>
+      <c r="H9" s="8">
+        <v>4.318</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>10.598</v>
+      </c>
+      <c r="K9" s="8">
+        <v>4.318</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>10.598</v>
+      </c>
+      <c r="N9" s="8">
+        <v>4.318</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>10.598</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>4.318</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8">
+        <v>11.195</v>
+      </c>
+      <c r="E10" s="8">
+        <v>18.675</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5.319</v>
+      </c>
+      <c r="H10" s="8">
+        <v>7.198</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>5.319</v>
+      </c>
+      <c r="K10" s="8">
+        <v>7.198</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>5.319</v>
+      </c>
+      <c r="N10" s="8">
+        <v>7.198</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>5.319</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>7.198</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8">
+        <v>9.83</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>9.83</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>9.83</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>9.83</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>9.83</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8">
+        <v>23.714</v>
+      </c>
+      <c r="E12" s="8">
+        <v>15.354</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>5.759</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2.079</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>5.759</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2.079</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>12.277</v>
+      </c>
+      <c r="N12" s="8">
+        <v>6.197</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>23.115</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>14.395</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4.677</v>
+      </c>
+      <c r="E13" s="8">
+        <v>13.436</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.079</v>
+      </c>
+      <c r="H13" s="8">
+        <v>7.878</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.079</v>
+      </c>
+      <c r="K13" s="8">
+        <v>7.878</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.079</v>
+      </c>
+      <c r="N13" s="8">
+        <v>7.878</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.079</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>7.878</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5.599</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>5.599</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>5.599</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>5.599</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>5.599</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8">
+        <v>29.952</v>
+      </c>
+      <c r="E15" s="8">
+        <v>21.634</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>18.638</v>
+      </c>
+      <c r="H15" s="8">
+        <v>4.478</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>18.638</v>
+      </c>
+      <c r="K15" s="8">
+        <v>4.478</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>18.638</v>
+      </c>
+      <c r="N15" s="8">
+        <v>4.478</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>18.638</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>4.478</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8">
+        <v>9.918</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.359</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>8.079</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2.359</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>8.079</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2.359</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>8.079</v>
+      </c>
+      <c r="N16" s="8">
+        <v>2.359</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>8.079</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>2.359</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8">
+        <v>9.519</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>9.519</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>9.519</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>9.519</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>9.519</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8">
+        <v>12.757</v>
+      </c>
+      <c r="E18" s="8">
+        <v>10.357</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>10.839</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2.399</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>10.839</v>
+      </c>
+      <c r="K18" s="8">
+        <v>2.399</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>10.878</v>
+      </c>
+      <c r="N18" s="8">
+        <v>8.798</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>10.878</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>8.798</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8">
+        <v>5.117</v>
+      </c>
+      <c r="E19" s="8">
+        <v>6.237</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2.799</v>
+      </c>
+      <c r="H19" s="8">
+        <v>4.998</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>2.799</v>
+      </c>
+      <c r="K19" s="8">
+        <v>4.998</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>2.799</v>
+      </c>
+      <c r="N19" s="8">
+        <v>4.998</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>2.799</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>4.998</v>
+      </c>
+      <c r="R19" s="8">
         <v>0.0</v>
       </c>
     </row>
